--- a/domain/tasks/masterdata-entry/masterdata-ingame-creator/20260220_104212_normal_you_00001/generated/xlsx/20260220_masterdata.xlsx
+++ b/domain/tasks/masterdata-entry/masterdata-ingame-creator/20260220_104212_normal_you_00001/generated/xlsx/20260220_masterdata.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,400 +604,1624 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>normal_you_00001_1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>InitialSummon</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>c_you_00201_you1_normal01_Boss_Red</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Boss</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>normal_you_00001_2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ElapsedTime</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>e_glo_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>normal_you_00001_3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ElapsedTime</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>e_you_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>normal_you_00001_4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ElapsedTime</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>e_glo_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>normal_you_00001_5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ElapsedTime</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>e_you_00101_general_n_Normal_Colorless</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>normal_you_00001_6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>c_you_00001_general_n_Normal_Red</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>normal_you_00001_7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>c_you_00101_general_n_Normal_Red</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>normal_you_00001_8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>e_glo_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>normal_you_00001_9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>e_you_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>normal_you_00001_10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>c_you_00001_general_n_Normal_Red</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>normal_you_00001_11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>c_you_00101_general_n_Normal_Red</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>normal_you_00001_12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>e_you_00101_general_n_Normal_Colorless</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>normal_you_00001_13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FriendUnitDead</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SummonEnemy</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>e_glo_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1010,7 +2234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,6 +2271,30 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>release_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>event_you_0001</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>999999999</t>
         </is>
       </c>
     </row>
@@ -1061,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,64 +2410,404 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c_you_00201_you1_normal01_Boss_Red</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>chara_you_00201</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Boss</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c_you_00001_general_n_Normal_Red</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>chara_you_00001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Attack</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c_you_00101_general_n_Normal_Red</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>chara_you_00101</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Technical</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>e_you_00001_general_n_Normal_Colorless</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>enemy_you_00001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Defense</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Colorless</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>e_you_00101_general_n_Normal_Colorless</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>enemy_you_00101</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Attack</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Colorless</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1232,7 +2820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,6 +2934,85 @@
           <t>description.ja</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SSE_SBG_003_001</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1358,7 +3025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1579,48 +3246,412 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>normal_you_00001_1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>you_00003</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>you_00003</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-0.92</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>MoveSpeedUp</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Enemy</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>normal_you_00001_2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>you_00003</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>normal_you_00001_3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>you_00003</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>you_00003</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Darkness</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1633,7 +3664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,6 +3681,18 @@
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>release_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>999999999</t>
         </is>
       </c>
     </row>
@@ -1664,7 +3707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,6 +3822,97 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>quest_main_you_normal_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>normal_you_00001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AfterClear</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>you_normal_01</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>999999999</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>you_a_0001</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2026-03-25 12:00:00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2030-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
